--- a/oil_royalty_rate_mapping/auction_structured.xlsx
+++ b/oil_royalty_rate_mapping/auction_structured.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LA_Dataset" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="New Mexico - Dataset" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Colorado - Dataset" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Texas - Dataset" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NM_Dataset" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CO_Dataset" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TX_Dataset" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -2014,16 +2014,10 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -2093,7 +2087,7 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1" vertical="top"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -15202,7 +15196,7 @@
         <v>216</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" ref="E66" si="2">I66/B66</f>
+        <f t="shared" ref="E66:E129" si="2">I66/B66</f>
         <v>3.7996101364522414</v>
       </c>
       <c r="F66" s="4">
@@ -15238,7 +15232,7 @@
         <v>216</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E130" si="3">I67/B67</f>
+        <f t="shared" si="2"/>
         <v>2.6480524671710071</v>
       </c>
       <c r="F67" s="4">
@@ -15274,7 +15268,7 @@
         <v>216</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F68" s="4">
@@ -15310,7 +15304,7 @@
         <v>242</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F69" s="4">
@@ -15346,7 +15340,7 @@
         <v>242</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F70" s="4">
@@ -15382,7 +15376,7 @@
         <v>216</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.75</v>
       </c>
       <c r="F71" s="4">
@@ -15418,7 +15412,7 @@
         <v>242</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.7777777777777777</v>
       </c>
       <c r="F72" s="4">
@@ -15454,7 +15448,7 @@
         <v>242</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.9166666666666665</v>
       </c>
       <c r="F73" s="4">
@@ -15490,7 +15484,7 @@
         <v>242</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F74" s="4">
@@ -15526,7 +15520,7 @@
         <v>258</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F75" s="4">
@@ -15562,7 +15556,7 @@
         <v>216</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F76" s="4">
@@ -15598,7 +15592,7 @@
         <v>216</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.65625</v>
       </c>
       <c r="F77" s="4">
@@ -15634,7 +15628,7 @@
         <v>242</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.6779232794818872</v>
       </c>
       <c r="F78" s="4">
@@ -15670,7 +15664,7 @@
         <v>242</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.810906603656262</v>
       </c>
       <c r="F79" s="4">
@@ -15706,7 +15700,7 @@
         <v>242</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.850778728777887</v>
       </c>
       <c r="F80" s="4">
@@ -15742,7 +15736,7 @@
         <v>258</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F81" s="4">
@@ -15778,7 +15772,7 @@
         <v>216</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F82" s="4">
@@ -15814,7 +15808,7 @@
         <v>242</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F83" s="4">
@@ -15850,7 +15844,7 @@
         <v>242</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="F84" s="4">
@@ -15886,7 +15880,7 @@
         <v>242</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F85" s="4">
@@ -15922,7 +15916,7 @@
         <v>242</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F86" s="4">
@@ -15958,7 +15952,7 @@
         <v>242</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F87" s="4">
@@ -15994,7 +15988,7 @@
         <v>216</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F88" s="4">
@@ -16030,7 +16024,7 @@
         <v>216</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F89" s="4">
@@ -16066,7 +16060,7 @@
         <v>242</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8125</v>
       </c>
       <c r="F90" s="4">
@@ -16102,7 +16096,7 @@
         <v>242</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F91" s="4">
@@ -16138,7 +16132,7 @@
         <v>242</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F92" s="4">
@@ -16174,7 +16168,7 @@
         <v>242</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8125</v>
       </c>
       <c r="F93" s="4">
@@ -16210,7 +16204,7 @@
         <v>242</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F94" s="4">
@@ -16246,7 +16240,7 @@
         <v>242</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F95" s="4">
@@ -16282,7 +16276,7 @@
         <v>242</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8125</v>
       </c>
       <c r="F96" s="4">
@@ -16318,7 +16312,7 @@
         <v>242</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F97" s="4">
@@ -16354,7 +16348,7 @@
         <v>242</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F98" s="4">
@@ -16390,7 +16384,7 @@
         <v>311</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F99" s="4">
@@ -16426,7 +16420,7 @@
         <v>312</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F100" s="4">
@@ -16462,7 +16456,7 @@
         <v>313</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34.125</v>
       </c>
       <c r="F101" s="4">
@@ -16498,7 +16492,7 @@
         <v>242</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F102" s="4">
@@ -16534,7 +16528,7 @@
         <v>242</v>
       </c>
       <c r="E103" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F103" s="4">
@@ -16570,7 +16564,7 @@
         <v>242</v>
       </c>
       <c r="E104" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.7258764004336826</v>
       </c>
       <c r="F104" s="4">
@@ -16606,7 +16600,7 @@
         <v>242</v>
       </c>
       <c r="E105" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
       <c r="F105" s="4">
@@ -16642,7 +16636,7 @@
         <v>242</v>
       </c>
       <c r="E106" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F106" s="4">
@@ -16678,7 +16672,7 @@
         <v>317</v>
       </c>
       <c r="E107" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F107" s="4">
@@ -16714,7 +16708,7 @@
         <v>242</v>
       </c>
       <c r="E108" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.8125</v>
       </c>
       <c r="F108" s="4">
@@ -16750,7 +16744,7 @@
         <v>242</v>
       </c>
       <c r="E109" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F109" s="4">
@@ -16786,7 +16780,7 @@
         <v>242</v>
       </c>
       <c r="E110" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="F110" s="4">
@@ -16822,7 +16816,7 @@
         <v>242</v>
       </c>
       <c r="E111" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="F111" s="4">
@@ -16858,7 +16852,7 @@
         <v>242</v>
       </c>
       <c r="E112" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F112" s="4">
@@ -16894,7 +16888,7 @@
         <v>242</v>
       </c>
       <c r="E113" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F113" s="4">
@@ -16930,7 +16924,7 @@
         <v>242</v>
       </c>
       <c r="E114" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F114" s="4">
@@ -16966,7 +16960,7 @@
         <v>242</v>
       </c>
       <c r="E115" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.8535067873303168</v>
       </c>
       <c r="F115" s="4">
@@ -17002,7 +16996,7 @@
         <v>242</v>
       </c>
       <c r="E116" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F116" s="4">
@@ -17038,7 +17032,7 @@
         <v>242</v>
       </c>
       <c r="E117" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="F117" s="4">
@@ -17074,7 +17068,7 @@
         <v>242</v>
       </c>
       <c r="E118" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9166666666666665</v>
       </c>
       <c r="F118" s="4">
@@ -17110,7 +17104,7 @@
         <v>242</v>
       </c>
       <c r="E119" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F119" s="4">
@@ -17146,7 +17140,7 @@
         <v>242</v>
       </c>
       <c r="E120" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.65625</v>
       </c>
       <c r="F120" s="4">
@@ -17182,7 +17176,7 @@
         <v>242</v>
       </c>
       <c r="E121" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F121" s="4">
@@ -17218,7 +17212,7 @@
         <v>242</v>
       </c>
       <c r="E122" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.65625</v>
       </c>
       <c r="F122" s="4">
@@ -17254,7 +17248,7 @@
         <v>242</v>
       </c>
       <c r="E123" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F123" s="4">
@@ -17290,7 +17284,7 @@
         <v>242</v>
       </c>
       <c r="E124" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F124" s="4">
@@ -17326,7 +17320,7 @@
         <v>242</v>
       </c>
       <c r="E125" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.125</v>
       </c>
       <c r="F125" s="4">
@@ -17362,7 +17356,7 @@
         <v>242</v>
       </c>
       <c r="E126" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F126" s="4">
@@ -17398,7 +17392,7 @@
         <v>242</v>
       </c>
       <c r="E127" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.65625</v>
       </c>
       <c r="F127" s="4">
@@ -17434,7 +17428,7 @@
         <v>242</v>
       </c>
       <c r="E128" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.6754405046769634</v>
       </c>
       <c r="F128" s="4">
@@ -17470,7 +17464,7 @@
         <v>242</v>
       </c>
       <c r="E129" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.8125</v>
       </c>
       <c r="F129" s="4">
@@ -17506,7 +17500,7 @@
         <v>242</v>
       </c>
       <c r="E130" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E130" si="3">I130/B130</f>
         <v>6.65625</v>
       </c>
       <c r="F130" s="4">
